--- a/simpleSort/Результаты тестирований с пирамидой  и быстрой и линейной сортировкой.xlsx
+++ b/simpleSort/Результаты тестирований с пирамидой  и быстрой и линейной сортировкой.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilmendelev/Desktop/Учеба Алгоритмы/simpleSort/simpleSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4230870-68BA-D649-9E87-1E20AD817367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F8E97-B39F-234A-BD53-472E9FD34D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4280" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Value - TESTING RESULT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="206">
   <si>
     <t>TESTING RESULT</t>
   </si>
@@ -623,6 +623,21 @@
   </si>
   <si>
     <t>7.796287536621094e-05</t>
+  </si>
+  <si>
+    <t>RadixSort</t>
+  </si>
+  <si>
+    <t>77.22881698608398</t>
+  </si>
+  <si>
+    <t>0.7832790613174438</t>
+  </si>
+  <si>
+    <t>0.008310914039611816</t>
+  </si>
+  <si>
+    <t>0.00012803077697753906</t>
   </si>
 </sst>
 </file>
@@ -639,24 +654,28 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1696,6 +1715,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1708,9 +1754,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1718,30 +1761,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2871,13 +2890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AH38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2910,124 +2929,135 @@
     <col min="29" max="29" width="12.1640625" style="1" customWidth="1"/>
     <col min="30" max="30" width="13.33203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="24.33203125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="16.33203125" style="1"/>
+    <col min="32" max="32" width="10.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="22.83203125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
     </row>
-    <row r="2" spans="1:31" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
     </row>
-    <row r="3" spans="1:31" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="90" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="90" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="90" t="s">
+      <c r="I3" s="83"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="86" t="s">
+      <c r="L3" s="83"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="86" t="s">
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="86" t="s">
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="78" t="s">
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="78" t="s">
+      <c r="X3" s="88"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78" t="s">
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="80"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="89"/>
     </row>
-    <row r="4" spans="1:31" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -3119,8 +3149,17 @@
       <c r="AE4" s="75" t="s">
         <v>11</v>
       </c>
+      <c r="AF4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="75" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>10</v>
       </c>
@@ -3214,8 +3253,17 @@
       <c r="AE5" s="46" t="s">
         <v>17</v>
       </c>
+      <c r="AF5" s="46">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="46">
+        <v>233</v>
+      </c>
+      <c r="AH5" s="46" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>100</v>
       </c>
@@ -3309,8 +3357,17 @@
       <c r="AE6" s="46" t="s">
         <v>200</v>
       </c>
+      <c r="AF6" s="46">
+        <v>108</v>
+      </c>
+      <c r="AG6" s="46">
+        <v>20716</v>
+      </c>
+      <c r="AH6" s="46" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>1000</v>
       </c>
@@ -3404,8 +3461,17 @@
       <c r="AE7" s="46" t="s">
         <v>199</v>
       </c>
+      <c r="AF7" s="46">
+        <v>1107</v>
+      </c>
+      <c r="AG7" s="76">
+        <v>2025699</v>
+      </c>
+      <c r="AH7" s="46" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
@@ -3499,8 +3565,17 @@
       <c r="AE8" s="46" t="s">
         <v>198</v>
       </c>
+      <c r="AF8" s="46">
+        <v>11106</v>
+      </c>
+      <c r="AG8" s="46">
+        <v>202075682</v>
+      </c>
+      <c r="AH8" s="46" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>41</v>
       </c>
@@ -3594,8 +3669,17 @@
       <c r="AE9" s="46" t="s">
         <v>197</v>
       </c>
+      <c r="AF9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH9" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
@@ -3689,88 +3773,97 @@
       <c r="AE10" s="46" t="s">
         <v>196</v>
       </c>
+      <c r="AF10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH10" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
     </row>
-    <row r="12" spans="1:31" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="90" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="90" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="90" t="s">
+      <c r="I12" s="83"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="86" t="s">
+      <c r="L12" s="83"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="86" t="s">
+      <c r="O12" s="80"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="87"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="86" t="s">
+      <c r="R12" s="80"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="78" t="s">
+      <c r="U12" s="80"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="78" t="s">
+      <c r="X12" s="88"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="80"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="89"/>
     </row>
-    <row r="13" spans="1:31" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -3854,7 +3947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -3940,7 +4033,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>100</v>
       </c>
@@ -4026,7 +4119,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>1000</v>
       </c>
@@ -4372,83 +4465,83 @@
     </row>
     <row r="20" spans="1:28" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
     </row>
     <row r="21" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="90" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="90" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="90" t="s">
+      <c r="I21" s="83"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="91"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="86" t="s">
+      <c r="L21" s="83"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="86" t="s">
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="87"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="86" t="s">
+      <c r="R21" s="80"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="87"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="78" t="s">
+      <c r="U21" s="80"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="78" t="s">
+      <c r="X21" s="91"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="80"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="89"/>
     </row>
     <row r="22" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
@@ -5052,83 +5145,83 @@
     </row>
     <row r="29" spans="1:28" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
     </row>
     <row r="30" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="90" t="s">
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="90" t="s">
+      <c r="F30" s="83"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="90" t="s">
+      <c r="I30" s="83"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="91"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="86" t="s">
+      <c r="L30" s="83"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="86" t="s">
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R30" s="87"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="86" t="s">
+      <c r="R30" s="80"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U30" s="87"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="84" t="s">
+      <c r="U30" s="80"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="78" t="s">
+      <c r="X30" s="91"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="80"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="89"/>
     </row>
     <row r="31" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
@@ -5734,21 +5827,20 @@
       <c r="Y38" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
+  <mergeCells count="43">
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="B11:AB11"/>
+    <mergeCell ref="B20:AB20"/>
+    <mergeCell ref="B29:AB29"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T12:V12"/>
     <mergeCell ref="T21:V21"/>
     <mergeCell ref="T30:V30"/>
     <mergeCell ref="B30:D30"/>
@@ -5761,22 +5853,24 @@
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="B11:AB11"/>
-    <mergeCell ref="B20:AB20"/>
-    <mergeCell ref="B29:AB29"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q30:S30"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
